--- a/biology/Biologie cellulaire et moléculaire/Leucoplaste/Leucoplaste.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Leucoplaste/Leucoplaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les leucoplastes représentent une catégorie de plastes, organites spécifiques des cellules végétales. Contrairement à d'autres plastes tels que les chloroplastes ou les chromoplastes, ils ne sont pas pigmentés.
 N'ayant pas de pigments, les leucoplastes ne sont pas verts, ce qui suggère une localisation dans les racines et dans les tissus non photosynthétiques. Ils peuvent se spécialiser pour stocker des réserves d'amidon, de lipides ou de protéines, ils sont alors respectivement appelés amyloplastes, oléoplastes, ou protéinoplastes. Cependant, dans de nombreux types cellulaires, les leucoplastes n'occupent pas une fonction de stockage, mais sont impliqués dans de nombreuses réactions de biosynthèse essentielles, telles que la synthèse d'acides gras, de nombreux acides aminés, et de composés tétrapyrroles comme les hèmes. En général, les leucoplastes sont de taille inférieure aux chloroplastes et prennent des formes variées, souvent décrites comme amiboïdes. Des réseaux denses de stromules (en) reliant les leucoplastes ont été observés dans les cellules épidermiques des racines, des hypocotyles et des pétales, ainsi que dans des cals et des suspensions de cultures cellulaires de tabac. Dans certains types cellulaires et à certains stades de développement, les leucoplastes sont rassemblés autour du noyau avec des stromules qui s'étendent vers la périphérie cellulaire, comme observé pour les proplastes dans les méristèmes racinaires.
@@ -514,7 +526,9 @@
           <t>Comparaison</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Proplaste
 Plaste
